--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-15884.0372858435</v>
+        <v>-24188.93249349771</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11715962.26448287</v>
+        <v>11715962.26448288</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3093849.912446495</v>
+        <v>3093849.912446494</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.155166406294812</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>369.3771894351204</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1463,7 +1463,7 @@
         <v>82.55</v>
       </c>
       <c r="G12" t="n">
-        <v>83.52738940623971</v>
+        <v>83.52738940623969</v>
       </c>
       <c r="H12" t="n">
         <v>31.62322353306971</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.17482029426318</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>12.99065215615417</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2175023129948</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>48.50583343253317</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>398.1302486828127</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1703,7 +1703,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306969</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4072206299168</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>20.8830578002683</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.5301693740618</v>
+        <v>204.8426041147492</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1937,7 +1937,7 @@
         <v>82.55</v>
       </c>
       <c r="G18" t="n">
-        <v>83.52738940623971</v>
+        <v>83.52738940623966</v>
       </c>
       <c r="H18" t="n">
         <v>31.62322353306971</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.17482029426295</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>155.9729252669617</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>113.1878627007899</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>315.1723433222105</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>275.1106372348589</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426318</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>83.92742596576343</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>64.65234145753891</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>149.6157531058527</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>398.1302486828127</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36.79852016673944</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>138.0340314236579</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>328.5107569703938</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>352.7693069597025</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -2617,13 +2617,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H27" t="n">
-        <v>31.62322353306995</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>170.2484314711945</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>36.79852016673944</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>289.0012590013207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2857,10 +2857,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>361.4649050157285</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>82.55</v>
       </c>
       <c r="G30" t="n">
-        <v>83.52738940623971</v>
+        <v>83.52738940623966</v>
       </c>
       <c r="H30" t="n">
         <v>31.62322353306971</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>187.9306356540155</v>
       </c>
       <c r="C31" t="n">
-        <v>49.19444708964232</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>94.35670324806254</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>361.4649050157276</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H33" t="n">
-        <v>31.6232235330697</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>75.98232602823171</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>5.033780699103638</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -3280,10 +3280,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>54.91274684145261</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>176.963177619809</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>147.0241662611852</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.18189662745586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>244.9043102020997</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3568,7 +3568,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>213.7416271160864</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>86.68491899621426</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>5.033780699103638</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>172.5998412330484</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>109.5540470185014</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>64.65234145753891</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>55.49107235181528</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>172.5998412330484</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>149.6157531058523</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>64.65234145753891</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>37.69870921092637</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>447.8760776233107</v>
+        <v>1284.09203812199</v>
       </c>
       <c r="C11" t="n">
-        <v>446.7092428694776</v>
+        <v>1284.09203812199</v>
       </c>
       <c r="D11" t="n">
-        <v>446.7092428694776</v>
+        <v>848.1822532964343</v>
       </c>
       <c r="E11" t="n">
-        <v>446.7092428694776</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F11" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228021</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867032</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5071,22 +5071,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2060.790516184048</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V11" t="n">
-        <v>1698.173566117875</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W11" t="n">
-        <v>1293.318111528908</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="X11" t="n">
-        <v>874.1756481082185</v>
+        <v>1284.09203812199</v>
       </c>
       <c r="Y11" t="n">
-        <v>874.1756481082185</v>
+        <v>1284.09203812199</v>
       </c>
     </row>
     <row r="12">
@@ -5099,25 +5099,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5126,10 +5126,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>168.6383720671313</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C13" t="n">
-        <v>47.20655154895474</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D13" t="n">
-        <v>47.20655154895474</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E13" t="n">
-        <v>47.20655154895474</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
         <v>106.1122152511379</v>
@@ -5226,25 +5226,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S13" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T13" t="n">
-        <v>647.4124989156879</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U13" t="n">
-        <v>647.4124989156879</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V13" t="n">
-        <v>360.4569907861184</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W13" t="n">
-        <v>360.4569907861184</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X13" t="n">
-        <v>360.4569907861184</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y13" t="n">
-        <v>360.4569907861184</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>765.4265856715602</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C14" t="n">
-        <v>765.4265856715602</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D14" t="n">
-        <v>765.4265856715602</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E14" t="n">
         <v>716.4307943255671</v>
@@ -5275,16 +5275,16 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.710627381563</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W14" t="n">
-        <v>1592.855172792596</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="X14" t="n">
-        <v>1173.712709371907</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="Y14" t="n">
-        <v>765.4265856715602</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="15">
@@ -5348,7 +5348,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235846</v>
       </c>
       <c r="H15" t="n">
         <v>47.20655154895473</v>
@@ -5363,10 +5363,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2215.901038951971</v>
+        <v>389.7915983856759</v>
       </c>
       <c r="C16" t="n">
-        <v>2047.81293730559</v>
+        <v>389.7915983856759</v>
       </c>
       <c r="D16" t="n">
-        <v>2047.81293730559</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="E16" t="n">
-        <v>1878.054933556327</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
-        <v>1878.054933556327</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G16" t="n">
-        <v>1713.313753168846</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
-        <v>1580.969692548162</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M16" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N16" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951971</v>
+        <v>868.5657252342326</v>
       </c>
       <c r="T16" t="n">
-        <v>2215.901038951971</v>
+        <v>868.5657252342326</v>
       </c>
       <c r="U16" t="n">
-        <v>2215.901038951971</v>
+        <v>868.5657252342326</v>
       </c>
       <c r="V16" t="n">
-        <v>2215.901038951971</v>
+        <v>581.610217104663</v>
       </c>
       <c r="W16" t="n">
-        <v>2215.901038951971</v>
+        <v>581.610217104663</v>
       </c>
       <c r="X16" t="n">
-        <v>2215.901038951971</v>
+        <v>581.610217104663</v>
       </c>
       <c r="Y16" t="n">
-        <v>2215.901038951971</v>
+        <v>581.610217104663</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="C17" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D17" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E17" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F17" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.710627381563</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W17" t="n">
-        <v>1592.855172792596</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X17" t="n">
-        <v>1173.712709371907</v>
+        <v>662.4043965773309</v>
       </c>
       <c r="Y17" t="n">
-        <v>765.4265856715602</v>
+        <v>254.1182728769843</v>
       </c>
     </row>
     <row r="18">
@@ -5585,34 +5585,34 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P18" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q18" t="n">
         <v>1614.947661807679</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2202.779168087169</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="C19" t="n">
-        <v>2030.217456570394</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="D19" t="n">
-        <v>1864.339463771917</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="E19" t="n">
-        <v>1694.581460022654</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F19" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M19" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N19" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T19" t="n">
-        <v>2202.779168087169</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="U19" t="n">
-        <v>2202.779168087169</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="V19" t="n">
-        <v>2202.779168087169</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="W19" t="n">
-        <v>2202.779168087169</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="X19" t="n">
-        <v>2202.779168087169</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="Y19" t="n">
-        <v>2202.779168087169</v>
+        <v>388.6547859746801</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2060.790516184048</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C20" t="n">
-        <v>1622.648043367471</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D20" t="n">
-        <v>1186.738258541915</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>752.9635137002106</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>325.0960841094183</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U20" t="n">
-        <v>2060.790516184048</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V20" t="n">
-        <v>2060.790516184048</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="W20" t="n">
-        <v>2060.790516184048</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="X20" t="n">
-        <v>2060.790516184048</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="Y20" t="n">
-        <v>2060.790516184048</v>
+        <v>2101.256885969251</v>
       </c>
     </row>
     <row r="21">
@@ -5810,25 +5810,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1856.314110299662</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="C22" t="n">
-        <v>1683.752398782887</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D22" t="n">
-        <v>1517.87440598441</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E22" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F22" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G22" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M22" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N22" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T22" t="n">
-        <v>2275.552399704541</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U22" t="n">
-        <v>2275.552399704541</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="V22" t="n">
-        <v>2275.552399704541</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="W22" t="n">
-        <v>2275.552399704541</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="X22" t="n">
-        <v>2275.552399704541</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="Y22" t="n">
-        <v>2048.13272901865</v>
+        <v>679.9277891048604</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>716.4307943255671</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C23" t="n">
-        <v>716.4307943255671</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D23" t="n">
-        <v>716.4307943255671</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E23" t="n">
-        <v>716.4307943255671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F23" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L23" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6019,22 +6019,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T23" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U23" t="n">
-        <v>1889.485634438363</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V23" t="n">
-        <v>1526.868684372189</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W23" t="n">
-        <v>1526.868684372189</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X23" t="n">
-        <v>1124.716918025914</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y23" t="n">
-        <v>716.4307943255671</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="24">
@@ -6047,25 +6047,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E24" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G24" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6074,19 +6074,19 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M24" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P24" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q24" t="n">
         <v>1614.947661807679</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2323.157355057091</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="C25" t="n">
-        <v>2150.595643540315</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="D25" t="n">
-        <v>1984.717650741838</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E25" t="n">
-        <v>1814.959646992575</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F25" t="n">
-        <v>1814.959646992575</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G25" t="n">
-        <v>1650.218466605094</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H25" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I25" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J25" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M25" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N25" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q25" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T25" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U25" t="n">
-        <v>2360.327577447737</v>
+        <v>750.2314084429299</v>
       </c>
       <c r="V25" t="n">
-        <v>2360.327577447737</v>
+        <v>750.2314084429299</v>
       </c>
       <c r="W25" t="n">
-        <v>2360.327577447737</v>
+        <v>750.2314084429299</v>
       </c>
       <c r="X25" t="n">
-        <v>2360.327577447737</v>
+        <v>750.2314084429299</v>
       </c>
       <c r="Y25" t="n">
-        <v>2360.327577447737</v>
+        <v>750.2314084429299</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1486.402314586986</v>
+        <v>673.2607362976731</v>
       </c>
       <c r="C26" t="n">
-        <v>1048.259841770409</v>
+        <v>673.2607362976731</v>
       </c>
       <c r="D26" t="n">
-        <v>1048.259841770409</v>
+        <v>673.2607362976731</v>
       </c>
       <c r="E26" t="n">
-        <v>1048.259841770409</v>
+        <v>673.2607362976731</v>
       </c>
       <c r="F26" t="n">
-        <v>716.4307943255671</v>
+        <v>673.2607362976731</v>
       </c>
       <c r="G26" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L26" t="n">
         <v>805.440802286702</v>
@@ -6250,10 +6250,10 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R26" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
         <v>2108.089956131646</v>
@@ -6265,13 +6265,13 @@
         <v>1486.402314586986</v>
       </c>
       <c r="W26" t="n">
-        <v>1486.402314586986</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X26" t="n">
-        <v>1486.402314586986</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y26" t="n">
-        <v>1486.402314586986</v>
+        <v>673.2607362976731</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1226.247766280535</v>
+        <v>542.571305066391</v>
       </c>
       <c r="C27" t="n">
-        <v>1119.791305117177</v>
+        <v>436.1148439030333</v>
       </c>
       <c r="D27" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495865</v>
       </c>
       <c r="E27" t="n">
-        <v>930.5806015906844</v>
+        <v>246.9041403765402</v>
       </c>
       <c r="F27" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927018</v>
       </c>
       <c r="G27" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H27" t="n">
-        <v>730.8830127630989</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>765.099748934575</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J27" t="n">
-        <v>858.9930882810421</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>1019.471760335212</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L27" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M27" t="n">
-        <v>1487.064164512932</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N27" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P27" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q27" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R27" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S27" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T27" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U27" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V27" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280535</v>
       </c>
       <c r="X27" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669334</v>
       </c>
       <c r="Y27" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461541</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>573.2650719193497</v>
+        <v>852.4895006216354</v>
       </c>
       <c r="C28" t="n">
-        <v>573.2650719193497</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D28" t="n">
-        <v>407.3870791208724</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E28" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F28" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G28" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H28" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
         <v>202.912315818696</v>
@@ -6411,25 +6411,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S28" t="n">
-        <v>745.2331845165158</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T28" t="n">
-        <v>573.2650719193497</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U28" t="n">
-        <v>573.2650719193497</v>
+        <v>852.4895006216354</v>
       </c>
       <c r="V28" t="n">
-        <v>573.2650719193497</v>
+        <v>852.4895006216354</v>
       </c>
       <c r="W28" t="n">
-        <v>573.2650719193497</v>
+        <v>852.4895006216354</v>
       </c>
       <c r="X28" t="n">
-        <v>573.2650719193497</v>
+        <v>852.4895006216354</v>
       </c>
       <c r="Y28" t="n">
-        <v>573.2650719193497</v>
+        <v>852.4895006216354</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>339.1270151866524</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C29" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D29" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E29" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L29" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>1997.710627381563</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W29" t="n">
-        <v>1592.855172792596</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X29" t="n">
-        <v>1173.712709371907</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y29" t="n">
-        <v>765.4265856715602</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>762.8256627965029</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H30" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I30" t="n">
-        <v>765.0997489345755</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J30" t="n">
-        <v>858.9930882810426</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M30" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N30" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P30" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q30" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R30" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S30" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T30" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U30" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V30" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W30" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X30" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y30" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.89791224556313</v>
+        <v>555.4042596134699</v>
       </c>
       <c r="C31" t="n">
-        <v>47.20655154895473</v>
+        <v>382.8425480966948</v>
       </c>
       <c r="D31" t="n">
-        <v>47.20655154895473</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="E31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
         <v>106.1122152511379</v>
@@ -6648,25 +6648,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S31" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T31" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U31" t="n">
-        <v>611.2730910610244</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V31" t="n">
-        <v>324.3175829314549</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W31" t="n">
-        <v>324.3175829314549</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X31" t="n">
-        <v>324.3175829314549</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y31" t="n">
-        <v>96.89791224556313</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>716.4307943255671</v>
+        <v>919.1237692072363</v>
       </c>
       <c r="C32" t="n">
-        <v>716.4307943255671</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D32" t="n">
-        <v>716.4307943255671</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E32" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F32" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G32" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L32" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M32" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
         <v>2043.069798152528</v>
@@ -6724,10 +6724,10 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
         <v>2108.089956131646</v>
@@ -6736,16 +6736,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V32" t="n">
-        <v>1486.402314586986</v>
+        <v>1753.709463392491</v>
       </c>
       <c r="W32" t="n">
-        <v>1081.546859998019</v>
+        <v>1753.709463392491</v>
       </c>
       <c r="X32" t="n">
-        <v>716.4307943255671</v>
+        <v>1753.709463392491</v>
       </c>
       <c r="Y32" t="n">
-        <v>716.4307943255671</v>
+        <v>1345.423339692144</v>
       </c>
     </row>
     <row r="33">
@@ -6770,10 +6770,10 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.14920158235846</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
         <v>81.42328772043084</v>
@@ -6785,10 +6785,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.20655154895472</v>
+        <v>470.4214336074024</v>
       </c>
       <c r="C34" t="n">
-        <v>47.20655154895472</v>
+        <v>470.4214336074024</v>
       </c>
       <c r="D34" t="n">
-        <v>47.20655154895472</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E34" t="n">
-        <v>47.20655154895472</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
         <v>202.912315818696</v>
@@ -6885,25 +6885,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S34" t="n">
-        <v>884.5750960434898</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T34" t="n">
-        <v>884.5750960434898</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U34" t="n">
-        <v>606.1884640922327</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V34" t="n">
-        <v>319.2329559626632</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W34" t="n">
-        <v>47.20655154895472</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="X34" t="n">
-        <v>47.20655154895472</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.20655154895472</v>
+        <v>662.2400523263896</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1346.991198798029</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="C35" t="n">
-        <v>908.8487259814518</v>
+        <v>1669.947483315069</v>
       </c>
       <c r="D35" t="n">
-        <v>908.8487259814518</v>
+        <v>1234.037698489514</v>
       </c>
       <c r="E35" t="n">
-        <v>475.073981139747</v>
+        <v>800.2629536478089</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895473</v>
+        <v>372.3955240570166</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
         <v>47.20655154895473</v>
@@ -6940,10 +6940,10 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X35" t="n">
-        <v>2181.576892983283</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y35" t="n">
-        <v>1773.290769282936</v>
+        <v>2108.089956131646</v>
       </c>
     </row>
     <row r="36">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="C37" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="D37" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="E37" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F37" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G37" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H37" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M37" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N37" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q37" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T37" t="n">
-        <v>2360.327577447737</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U37" t="n">
-        <v>2081.940945496479</v>
+        <v>498.9032400660059</v>
       </c>
       <c r="V37" t="n">
-        <v>2081.940945496479</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="W37" t="n">
-        <v>1809.914541082771</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="X37" t="n">
-        <v>1564.522786416183</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="Y37" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C38" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D38" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E38" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L38" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>1889.485634438363</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V38" t="n">
-        <v>1526.868684372189</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W38" t="n">
-        <v>1122.013229783223</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="X38" t="n">
-        <v>702.8707663625333</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="Y38" t="n">
-        <v>294.5846426621868</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="39">
@@ -7232,25 +7232,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7259,10 +7259,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1517.87440598441</v>
+        <v>473.2067801028074</v>
       </c>
       <c r="C40" t="n">
-        <v>1517.87440598441</v>
+        <v>300.6450685860323</v>
       </c>
       <c r="D40" t="n">
-        <v>1517.87440598441</v>
+        <v>134.767075787555</v>
       </c>
       <c r="E40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M40" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N40" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q40" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T40" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U40" t="n">
-        <v>2081.940945496479</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.98543736691</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W40" t="n">
-        <v>1522.959032953201</v>
+        <v>473.2067801028074</v>
       </c>
       <c r="X40" t="n">
-        <v>1517.87440598441</v>
+        <v>473.2067801028074</v>
       </c>
       <c r="Y40" t="n">
-        <v>1517.87440598441</v>
+        <v>473.2067801028074</v>
       </c>
     </row>
     <row r="41">
@@ -7426,7 +7426,7 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7447,16 +7447,16 @@
         <v>2319.861207662534</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.861207662534</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W41" t="n">
-        <v>2319.861207662534</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="X41" t="n">
-        <v>2209.200554108492</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.200554108492</v>
+        <v>1957.24425759636</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>103.2581397831116</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="C43" t="n">
-        <v>103.2581397831116</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D43" t="n">
-        <v>103.2581397831116</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E43" t="n">
-        <v>103.2581397831116</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F43" t="n">
-        <v>103.2581397831116</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H43" t="n">
         <v>47.20655154895473</v>
@@ -7596,25 +7596,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S43" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T43" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U43" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V43" t="n">
-        <v>602.7042148827118</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W43" t="n">
-        <v>330.6778104690033</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X43" t="n">
-        <v>330.6778104690033</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.2581397831116</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="44">
@@ -7645,7 +7645,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
         <v>276.0532770435806</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V44" t="n">
-        <v>2360.327577447737</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W44" t="n">
-        <v>2360.327577447737</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="X44" t="n">
-        <v>2209.200554108492</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.200554108492</v>
+        <v>1957.24425759636</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.20655154895473</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="C46" t="n">
-        <v>47.20655154895473</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D46" t="n">
-        <v>47.20655154895473</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E46" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
         <v>47.20655154895473</v>
@@ -7833,25 +7833,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S46" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T46" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U46" t="n">
-        <v>851.5802187588204</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V46" t="n">
-        <v>564.6247106292508</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W46" t="n">
-        <v>292.5983062155423</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X46" t="n">
-        <v>47.20655154895473</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.20655154895473</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
   </sheetData>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>432.6058816821161</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>60.05980795816737</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>176.9097803756431</v>
       </c>
       <c r="C13" t="n">
-        <v>50.61859208861253</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -23503,7 +23503,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>380.9311639607546</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -23548,19 +23548,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.676651360264259</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>4.428873771690462</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>122.0992153105395</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -23712,7 +23712,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>106.5064054059969</v>
+        <v>217.1939706653095</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23746,7 +23746,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>83.85182658866576</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>162.4149029309546</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>106.8642314578482</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>120.3970271724587</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>155.897325889864</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>210.9504241742055</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -24195,7 +24195,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>106.8642314578485</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>16.82079010366965</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.1019123650578</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
         <v>62.46433369811443</v>
@@ -24420,7 +24420,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>137.5687342080865</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -24445,7 +24445,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -24454,10 +24454,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>95.07799832449052</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>42.73835744761504</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,13 +24603,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>69.57632038443292</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>238.804245465005</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>144.7597890870902</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24694,10 +24694,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>42.73835744761459</v>
       </c>
     </row>
     <row r="30">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>1.969796877781761</v>
       </c>
       <c r="C31" t="n">
-        <v>121.641647311965</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -24906,7 +24906,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>264.6340773174492</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>53.4861337707548</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>88.23688684226082</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.0937685836068</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>137.9484924117042</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>340.594917565865</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
@@ -25219,10 +25219,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>237.9878611666734</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25326,7 +25326,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
@@ -25365,22 +25365,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>128.5785993705592</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>178.9635773515769</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>177.132264577959</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -25405,10 +25405,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>201.209411670396</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>81.37550471555585</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -25599,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>237.904056420818</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>249.4367335470103</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>305.396991767981</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25788,22 +25788,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>106.1837529440684</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>107.6026962317915</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -25845,16 +25845,16 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>249.4367335470103</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
@@ -25924,13 +25924,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>265.3352856806301</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26025,22 +26025,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>106.1837529440684</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26073,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>237.9040564208181</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>356556.3948348165</v>
+        <v>356556.3948348164</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>356556.3948348165</v>
+        <v>356556.3948348164</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>356556.3948348164</v>
+        <v>356556.3948348165</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>356556.3948348164</v>
+        <v>356556.3948348165</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>356556.3948348164</v>
+        <v>356556.3948348166</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>356556.3948348163</v>
+        <v>356556.3948348165</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>356556.3948348164</v>
+        <v>356556.3948348165</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>356556.3948348164</v>
+        <v>356556.3948348165</v>
       </c>
     </row>
   </sheetData>
@@ -26340,7 +26340,7 @@
         <v>132834.7353306179</v>
       </c>
       <c r="K2" t="n">
-        <v>132834.7353306179</v>
+        <v>132834.735330618</v>
       </c>
       <c r="L2" t="n">
         <v>132834.7353306179</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>147050.7684025715</v>
+        <v>147050.7684025714</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,22 +26429,22 @@
         <v>414.2905444231689</v>
       </c>
       <c r="F4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="G4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="H4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="I4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="J4" t="n">
         <v>414.2905444231689</v>
       </c>
       <c r="K4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="L4" t="n">
         <v>414.2905444231689</v>
@@ -26453,7 +26453,7 @@
         <v>414.2905444231689</v>
       </c>
       <c r="N4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="O4" t="n">
         <v>414.2905444231689</v>
@@ -26478,25 +26478,25 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="J5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="L5" t="n">
         <v>46051.08120963781</v>
@@ -26505,7 +26505,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-464765.8374141188</v>
+        <v>-465407.0755278941</v>
       </c>
       <c r="F6" t="n">
-        <v>86369.36357655691</v>
+        <v>85728.12546278154</v>
       </c>
       <c r="G6" t="n">
-        <v>86369.36357655693</v>
+        <v>85728.12546278155</v>
       </c>
       <c r="H6" t="n">
-        <v>86369.36357655691</v>
+        <v>85728.12546278155</v>
       </c>
       <c r="I6" t="n">
-        <v>86369.36357655691</v>
+        <v>85728.12546278155</v>
       </c>
       <c r="J6" t="n">
-        <v>86369.36357655691</v>
+        <v>85728.12546278157</v>
       </c>
       <c r="K6" t="n">
-        <v>86369.36357655693</v>
+        <v>85728.12546278158</v>
       </c>
       <c r="L6" t="n">
-        <v>86369.36357655691</v>
+        <v>85728.12546278157</v>
       </c>
       <c r="M6" t="n">
-        <v>-60681.40482601456</v>
+        <v>-61322.64293978992</v>
       </c>
       <c r="N6" t="n">
-        <v>86369.36357655693</v>
+        <v>85728.12546278155</v>
       </c>
       <c r="O6" t="n">
-        <v>86369.36357655696</v>
+        <v>85728.12546278154</v>
       </c>
       <c r="P6" t="n">
-        <v>86369.36357655696</v>
+        <v>85728.12546278154</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
         <v>466.7019280932212</v>
@@ -26798,34 +26798,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="H4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="I4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="J4" t="n">
         <v>590.0818943619341</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="L4" t="n">
         <v>590.0818943619341</v>
-      </c>
-      <c r="I4" t="n">
-        <v>590.0818943619341</v>
-      </c>
-      <c r="J4" t="n">
-        <v>590.081894361934</v>
-      </c>
-      <c r="K4" t="n">
-        <v>590.0818943619341</v>
-      </c>
-      <c r="L4" t="n">
-        <v>590.081894361934</v>
       </c>
       <c r="M4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619341</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32405,28 +32405,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.658232706284</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,25 +32563,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33213,7 +33213,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,13 +33256,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916798</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33274,25 +33274,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356906</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
@@ -33344,7 +33344,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33368,10 +33368,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
         <v>0.04590510768130049</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33450,7 +33450,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,13 +33493,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33511,7 +33511,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
@@ -33523,13 +33523,13 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
         <v>0.06604272567356906</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
@@ -33581,7 +33581,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33605,10 +33605,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
         <v>0.04590510768130049</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,19 +33730,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -33754,19 +33754,19 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33924,7 +33924,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,13 +33967,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33985,25 +33985,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
         <v>0.06604272567356906</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
@@ -34055,7 +34055,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34079,10 +34079,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
         <v>0.04590510768130049</v>
@@ -34465,7 +34465,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.658232706284</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
         <v>117.855135640546</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -35500,7 +35500,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
         <v>97.77787936116991</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35737,7 +35737,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O16" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207615</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,16 +36117,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.658232706284</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36448,10 +36448,10 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36612,7 +36612,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562325</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
@@ -36837,7 +36837,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916798</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36931,10 +36931,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -37065,13 +37065,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766674</v>
@@ -37080,7 +37080,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37159,7 +37159,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
@@ -37229,7 +37229,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M35" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37390,7 +37390,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37633,7 +37633,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742734</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37794,10 +37794,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -38019,7 +38019,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766674</v>
